--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\FSE\Accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879A5CD4-2424-4742-80C0-E5383F9AC86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F62D71-4CAF-4160-9EA1-EDD21671C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="434">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2681,7 +2680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2813,6 +2812,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2852,14 +2855,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3158,7 +3153,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,10 +4305,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4359,14 +4354,14 @@
       <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -4384,14 +4379,14 @@
       <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -4409,12 +4404,12 @@
       <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -4433,12 +4428,12 @@
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -4456,8 +4451,8 @@
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="30"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -5032,7 +5027,7 @@
       <c r="E23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="37">
         <v>44981</v>
       </c>
       <c r="G23" s="38" t="s">
@@ -5044,7 +5039,9 @@
       <c r="I23" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
@@ -5074,7 +5071,7 @@
       <c r="E24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="37">
         <v>44981</v>
       </c>
       <c r="G24" s="36" t="s">
@@ -5086,7 +5083,9 @@
       <c r="I24" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="J24" s="39"/>
+      <c r="J24" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -5116,7 +5115,7 @@
       <c r="E25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="37">
         <v>44981</v>
       </c>
       <c r="G25" s="36" t="s">
@@ -5128,7 +5127,9 @@
       <c r="I25" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="J25" s="39"/>
+      <c r="J25" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -5158,7 +5159,7 @@
       <c r="E26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="37">
         <v>44982</v>
       </c>
       <c r="G26" s="36" t="s">
@@ -5170,7 +5171,9 @@
       <c r="I26" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
@@ -5200,7 +5203,7 @@
       <c r="E27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="37">
         <v>44983</v>
       </c>
       <c r="G27" s="38" t="s">
@@ -5212,7 +5215,9 @@
       <c r="I27" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
@@ -5242,7 +5247,7 @@
       <c r="E28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="37">
         <v>44983</v>
       </c>
       <c r="G28" s="38" t="s">
@@ -5254,7 +5259,9 @@
       <c r="I28" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
@@ -5284,7 +5291,7 @@
       <c r="E29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="37">
         <v>44983</v>
       </c>
       <c r="G29" s="38" t="s">
@@ -5296,7 +5303,9 @@
       <c r="I29" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="J29" s="39"/>
+      <c r="J29" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
@@ -5326,7 +5335,7 @@
       <c r="E30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="37">
         <v>44983</v>
       </c>
       <c r="G30" s="38" t="s">
@@ -5338,7 +5347,9 @@
       <c r="I30" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="J30" s="39"/>
+      <c r="J30" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
@@ -5606,7 +5617,7 @@
       <c r="E38" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="37">
         <v>44982</v>
       </c>
       <c r="G38" s="38" t="s">
@@ -5618,10 +5629,16 @@
       <c r="I38" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J38" s="39"/>
+      <c r="J38" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="L38" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N38" s="39"/>
       <c r="O38" s="39" t="s">
         <v>84</v>
@@ -5652,7 +5669,7 @@
       <c r="E39" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="37">
         <v>44983</v>
       </c>
       <c r="G39" s="38" t="s">
@@ -5664,10 +5681,16 @@
       <c r="I39" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J39" s="39"/>
+      <c r="J39" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="L39" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N39" s="39"/>
       <c r="O39" s="39" t="s">
         <v>84</v>
@@ -5834,7 +5857,7 @@
       <c r="E44" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="37">
         <v>44982</v>
       </c>
       <c r="G44" s="38" t="s">
@@ -5846,10 +5869,16 @@
       <c r="I44" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="39"/>
+      <c r="J44" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="L44" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N44" s="39"/>
       <c r="O44" s="39" t="s">
         <v>84</v>
@@ -5880,7 +5909,7 @@
       <c r="E45" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="37">
         <v>44983</v>
       </c>
       <c r="G45" s="38" t="s">
@@ -5892,10 +5921,16 @@
       <c r="I45" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J45" s="39"/>
+      <c r="J45" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="L45" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N45" s="39"/>
       <c r="O45" s="39" t="s">
         <v>84</v>
@@ -6081,7 +6116,9 @@
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
+      <c r="O50" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P50" s="39" t="s">
         <v>345</v>
       </c>
@@ -6123,7 +6160,9 @@
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
+      <c r="O51" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P51" s="39" t="s">
         <v>345</v>
       </c>
@@ -7692,7 +7731,7 @@
       <c r="E97" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="F97" s="59">
+      <c r="F97" s="37">
         <v>44982</v>
       </c>
       <c r="G97" s="36" t="s">
@@ -7704,12 +7743,20 @@
       <c r="I97" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="J97" s="39"/>
+      <c r="J97" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
+      <c r="L97" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M97" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
+      <c r="O97" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P97" s="39" t="s">
         <v>353</v>
       </c>
@@ -7736,7 +7783,7 @@
       <c r="E98" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="F98" s="59"/>
+      <c r="F98" s="37"/>
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
       <c r="I98" s="38"/>
@@ -7774,7 +7821,7 @@
       <c r="E99" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="F99" s="59"/>
+      <c r="F99" s="37"/>
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
       <c r="I99" s="38"/>
@@ -7812,7 +7859,7 @@
       <c r="E100" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="59"/>
+      <c r="F100" s="37"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="I100" s="38"/>
@@ -7850,7 +7897,7 @@
       <c r="E101" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="F101" s="59">
+      <c r="F101" s="37">
         <v>44982</v>
       </c>
       <c r="G101" s="36" t="s">
@@ -7862,12 +7909,20 @@
       <c r="I101" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="J101" s="39"/>
+      <c r="J101" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
+      <c r="L101" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
+      <c r="O101" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P101" s="39" t="s">
         <v>353</v>
       </c>
@@ -7932,7 +7987,7 @@
       <c r="E103" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F103" s="59">
+      <c r="F103" s="37">
         <v>44982</v>
       </c>
       <c r="G103" s="36" t="s">
@@ -7944,12 +7999,20 @@
       <c r="I103" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="J103" s="39"/>
+      <c r="J103" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
+      <c r="L103" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M103" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
+      <c r="O103" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P103" s="39" t="s">
         <v>353</v>
       </c>
@@ -7976,7 +8039,7 @@
       <c r="E104" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="F104" s="59">
+      <c r="F104" s="37">
         <v>44982</v>
       </c>
       <c r="G104" s="36" t="s">
@@ -7988,12 +8051,20 @@
       <c r="I104" s="36" t="s">
         <v>376</v>
       </c>
-      <c r="J104" s="39"/>
+      <c r="J104" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
+      <c r="L104" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M104" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N104" s="39"/>
-      <c r="O104" s="39"/>
+      <c r="O104" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P104" s="39" t="s">
         <v>353</v>
       </c>
@@ -8020,24 +8091,32 @@
       <c r="E105" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="59">
+      <c r="F105" s="37">
         <v>44982</v>
       </c>
       <c r="G105" s="36" t="s">
         <v>380</v>
       </c>
-      <c r="H105" s="58" t="s">
+      <c r="H105" s="46" t="s">
         <v>378</v>
       </c>
       <c r="I105" s="36" t="s">
         <v>379</v>
       </c>
-      <c r="J105" s="39"/>
+      <c r="J105" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
+      <c r="L105" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M105" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
+      <c r="O105" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P105" s="39" t="s">
         <v>353</v>
       </c>
@@ -8064,7 +8143,7 @@
       <c r="E106" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="F106" s="59">
+      <c r="F106" s="37">
         <v>44982</v>
       </c>
       <c r="G106" s="36" t="s">
@@ -8076,12 +8155,20 @@
       <c r="I106" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="J106" s="39"/>
+      <c r="J106" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
+      <c r="L106" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M106" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
+      <c r="O106" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P106" s="39" t="s">
         <v>353</v>
       </c>
@@ -8108,7 +8195,7 @@
       <c r="E107" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="F107" s="59">
+      <c r="F107" s="37">
         <v>44982</v>
       </c>
       <c r="G107" s="36" t="s">
@@ -8120,12 +8207,20 @@
       <c r="I107" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="J107" s="39"/>
+      <c r="J107" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
+      <c r="L107" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M107" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N107" s="39"/>
-      <c r="O107" s="39"/>
+      <c r="O107" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P107" s="39" t="s">
         <v>353</v>
       </c>
@@ -8228,7 +8323,7 @@
       <c r="E110" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="F110" s="59">
+      <c r="F110" s="37">
         <v>44983</v>
       </c>
       <c r="G110" s="38" t="s">
@@ -8240,12 +8335,20 @@
       <c r="I110" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="J110" s="39"/>
+      <c r="J110" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
+      <c r="L110" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M110" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N110" s="39"/>
-      <c r="O110" s="39"/>
+      <c r="O110" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P110" s="39" t="s">
         <v>353</v>
       </c>
@@ -8386,7 +8489,7 @@
       <c r="E114" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="F114" s="59">
+      <c r="F114" s="37">
         <v>44983</v>
       </c>
       <c r="G114" s="38" t="s">
@@ -8398,12 +8501,20 @@
       <c r="I114" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="J114" s="39"/>
+      <c r="J114" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
+      <c r="L114" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M114" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N114" s="39"/>
-      <c r="O114" s="39"/>
+      <c r="O114" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P114" s="39" t="s">
         <v>353</v>
       </c>
@@ -8430,7 +8541,7 @@
       <c r="E115" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="F115" s="59">
+      <c r="F115" s="37">
         <v>44983</v>
       </c>
       <c r="G115" s="38" t="s">
@@ -8442,12 +8553,20 @@
       <c r="I115" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="J115" s="39"/>
+      <c r="J115" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
+      <c r="L115" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M115" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N115" s="39"/>
-      <c r="O115" s="39"/>
+      <c r="O115" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P115" s="39" t="s">
         <v>353</v>
       </c>
@@ -8512,7 +8631,7 @@
       <c r="E117" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="F117" s="59">
+      <c r="F117" s="37">
         <v>44983</v>
       </c>
       <c r="G117" s="38" t="s">
@@ -8524,12 +8643,20 @@
       <c r="I117" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="J117" s="39"/>
+      <c r="J117" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
+      <c r="L117" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M117" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
+      <c r="O117" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P117" s="39" t="s">
         <v>353</v>
       </c>
@@ -8556,7 +8683,7 @@
       <c r="E118" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="F118" s="59">
+      <c r="F118" s="37">
         <v>44983</v>
       </c>
       <c r="G118" s="38" t="s">
@@ -8568,12 +8695,20 @@
       <c r="I118" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="J118" s="39"/>
+      <c r="J118" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="L118" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M118" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N118" s="39"/>
-      <c r="O118" s="39"/>
+      <c r="O118" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P118" s="39" t="s">
         <v>353</v>
       </c>
@@ -8600,7 +8735,7 @@
       <c r="E119" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="F119" s="59">
+      <c r="F119" s="37">
         <v>44983</v>
       </c>
       <c r="G119" s="38" t="s">
@@ -8612,12 +8747,20 @@
       <c r="I119" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="J119" s="39"/>
+      <c r="J119" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
+      <c r="L119" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M119" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N119" s="39"/>
-      <c r="O119" s="39"/>
+      <c r="O119" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P119" s="39" t="s">
         <v>353</v>
       </c>
@@ -8644,7 +8787,7 @@
       <c r="E120" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="F120" s="59">
+      <c r="F120" s="37">
         <v>44983</v>
       </c>
       <c r="G120" s="38" t="s">
@@ -8656,12 +8799,20 @@
       <c r="I120" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="J120" s="39"/>
+      <c r="J120" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
+      <c r="L120" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M120" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N120" s="39"/>
-      <c r="O120" s="39"/>
+      <c r="O120" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P120" s="39" t="s">
         <v>353</v>
       </c>
@@ -8688,7 +8839,7 @@
       <c r="E121" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="F121" s="59">
+      <c r="F121" s="37">
         <v>44983</v>
       </c>
       <c r="G121" s="38" t="s">
@@ -8700,12 +8851,20 @@
       <c r="I121" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="J121" s="39"/>
+      <c r="J121" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
+      <c r="L121" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M121" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N121" s="39"/>
-      <c r="O121" s="39"/>
+      <c r="O121" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P121" s="39" t="s">
         <v>353</v>
       </c>
@@ -8732,7 +8891,7 @@
       <c r="E122" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="F122" s="59">
+      <c r="F122" s="37">
         <v>44983</v>
       </c>
       <c r="G122" s="38" t="s">
@@ -8744,12 +8903,20 @@
       <c r="I122" s="38" t="s">
         <v>429</v>
       </c>
-      <c r="J122" s="39"/>
+      <c r="J122" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
+      <c r="L122" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M122" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N122" s="39"/>
-      <c r="O122" s="39"/>
+      <c r="O122" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P122" s="39" t="s">
         <v>353</v>
       </c>
@@ -23998,7 +24165,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -24015,7 +24182,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L10:M1048576 O1:O8 L1:M8 O10:O1048576</xm:sqref>
+          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26184,6 +26351,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26414,27 +26601,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26453,31 +26645,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F62D71-4CAF-4160-9EA1-EDD21671C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9051F8-C54A-41A5-954D-427E8F1FD411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="434">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -2192,11 +2192,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,180 +2687,183 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3153,7 +3163,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,7 +3187,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4305,10 +4315,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,14 +4364,14 @@
       <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="51"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -4379,14 +4389,14 @@
       <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -4404,12 +4414,12 @@
       <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -4428,12 +4438,12 @@
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -4451,8 +4461,8 @@
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="30"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -5011,7 +5021,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>17</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>18</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>19</v>
       </c>
@@ -5187,7 +5197,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>20</v>
       </c>
@@ -5231,7 +5241,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>21</v>
       </c>
@@ -5275,7 +5285,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>23</v>
       </c>
@@ -6113,8 +6123,12 @@
       <c r="K50" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="L50" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N50" s="39"/>
       <c r="O50" s="39" t="s">
         <v>321</v>
@@ -6157,8 +6171,12 @@
       <c r="K51" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="L51" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N51" s="39"/>
       <c r="O51" s="39" t="s">
         <v>321</v>
@@ -7665,10 +7683,16 @@
       <c r="K95" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
+      <c r="L95" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M95" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
+      <c r="O95" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P95" s="39"/>
       <c r="Q95" s="39"/>
       <c r="R95" s="42"/>
@@ -7703,10 +7727,16 @@
       <c r="K96" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
+      <c r="L96" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M96" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
+      <c r="O96" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P96" s="39"/>
       <c r="Q96" s="39"/>
       <c r="R96" s="42"/>
@@ -7793,10 +7823,16 @@
       <c r="K98" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
+      <c r="L98" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M98" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
+      <c r="O98" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="42"/>
@@ -7831,10 +7867,16 @@
       <c r="K99" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
+      <c r="L99" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M99" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
+      <c r="O99" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P99" s="39"/>
       <c r="Q99" s="39"/>
       <c r="R99" s="42"/>
@@ -7869,10 +7911,16 @@
       <c r="K100" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
+      <c r="L100" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M100" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
+      <c r="O100" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P100" s="39"/>
       <c r="Q100" s="39"/>
       <c r="R100" s="42"/>
@@ -7959,10 +8007,16 @@
       <c r="K102" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
+      <c r="L102" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M102" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N102" s="39"/>
-      <c r="O102" s="39"/>
+      <c r="O102" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P102" s="39"/>
       <c r="Q102" s="39"/>
       <c r="R102" s="42"/>
@@ -8257,10 +8311,16 @@
       <c r="K108" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
+      <c r="L108" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M108" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N108" s="39"/>
-      <c r="O108" s="39"/>
+      <c r="O108" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P108" s="39"/>
       <c r="Q108" s="39"/>
       <c r="R108" s="42"/>
@@ -8295,10 +8355,16 @@
       <c r="K109" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
+      <c r="L109" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M109" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
+      <c r="O109" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P109" s="39"/>
       <c r="Q109" s="39"/>
       <c r="R109" s="42"/>
@@ -8385,10 +8451,16 @@
       <c r="K111" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
+      <c r="L111" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M111" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N111" s="39"/>
-      <c r="O111" s="39"/>
+      <c r="O111" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P111" s="39"/>
       <c r="Q111" s="39"/>
       <c r="R111" s="42"/>
@@ -8423,10 +8495,16 @@
       <c r="K112" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
+      <c r="L112" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M112" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N112" s="39"/>
-      <c r="O112" s="39"/>
+      <c r="O112" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P112" s="39"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="42"/>
@@ -8461,10 +8539,16 @@
       <c r="K113" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
+      <c r="L113" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M113" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N113" s="39"/>
-      <c r="O113" s="39"/>
+      <c r="O113" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P113" s="39"/>
       <c r="Q113" s="39"/>
       <c r="R113" s="42"/>
@@ -8603,10 +8687,16 @@
       <c r="K116" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
+      <c r="L116" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M116" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N116" s="39"/>
-      <c r="O116" s="39"/>
+      <c r="O116" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="P116" s="39"/>
       <c r="Q116" s="39"/>
       <c r="R116" s="42"/>
@@ -24148,6 +24238,11 @@
       <filters>
         <filter val="CERT_VAC"/>
         <filter val="SING_VAC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="19">
+      <filters>
+        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9051F8-C54A-41A5-954D-427E8F1FD411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232FEC8-AE1F-4428-9E60-909D060A2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="434">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1948,42 +1948,6 @@
     <t>L'errore viene salvato nel file di log dell'applicazione ed il record viene marcato come "DA SANARE". L'operatore correggerà l'errore e marcherà il record come "DA INVIARE", in modo che lo stesso sia accodato al prossimo ciclo di invii</t>
   </si>
   <si>
-    <t>9a7b4978abfa1ee0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.80eeee6bdce1984a44a8cf4c505b8f47ef6d4860701be034f1997c245de7529b.894afba3ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-24T18:04:16Z</t>
-  </si>
-  <si>
-    <t>b036f7a7955c93e3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.28cdcac6637939c6a8dbd0b47956b5aadaee00568c6e8247ab9089f043750d28.1a945dc2bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-24T18:22:50Z</t>
-  </si>
-  <si>
-    <t>cf67368bb0810e1c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.bbbb091976c7aede6f6931634a8d920b0b24a547b2364c484caf762880ec3322.d2796c9ba8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-24T18:48:54Z</t>
-  </si>
-  <si>
-    <t>a7734b4baf4bedf9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3e5771e5c8d898c14c4c5b398680bd81ff093871113dab013d842810089330ab.000ecf63df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-25T10:25:49Z</t>
-  </si>
-  <si>
     <t>5b3025ef0d79df37</t>
   </si>
   <si>
@@ -2071,42 +2035,6 @@
     <t>2023-02-26T10:51:19Z</t>
   </si>
   <si>
-    <t>1d0eb4c18f2a8074</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.24c36b8d91ea7c44c06a8ec57c9201c456aae406676be448609777a2d9811400.e0069483cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-26T10:57:35Z</t>
-  </si>
-  <si>
-    <t>9363d30d935f141e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3448cadfe205e7d9352b2483e95de95e0fbd97ef8cf26561743329f5ae305080.f8a48ece05^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-26T11:05:35Z</t>
-  </si>
-  <si>
-    <t>df18bd871b61bd57</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.5526fb95c16d7661f432a2468d508e9a7d20e8199152e4de34af44e2cad1cdca.246c7e23ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-26T11:11:22Z</t>
-  </si>
-  <si>
-    <t>868c26c1095a6230</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.c3138ce54da4e77800438a8c07ae5d4fd5b14a2644d7810a6e3811ef6501e519.6dbec118ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-26T11:13:30Z</t>
-  </si>
-  <si>
     <t>5431df6a9846540a</t>
   </si>
   <si>
@@ -2186,24 +2114,89 @@
   </si>
   <si>
     <t>2023-02-26T11:34:54Z</t>
+  </si>
+  <si>
+    <t>ec00e03d9be849bb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.80eeee6bdce1984a44a8cf4c505b8f47ef6d4860701be034f1997c245de7529b.5c31be7271^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:10:40Z</t>
+  </si>
+  <si>
+    <t>9130c4a3656ca80a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.28cdcac6637939c6a8dbd0b47956b5aadaee00568c6e8247ab9089f043750d28.096961d1f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:14:12Z</t>
+  </si>
+  <si>
+    <t>11751fe75a10e54b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.bbbb091976c7aede6f6931634a8d920b0b24a547b2364c484caf762880ec3322.ac8b712b57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:16:27Z</t>
+  </si>
+  <si>
+    <t>7f575ba625515b38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3e5771e5c8d898c14c4c5b398680bd81ff093871113dab013d842810089330ab.4d86612ef8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:18:43Z</t>
+  </si>
+  <si>
+    <t>061b0fc78e0a9121</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.24c36b8d91ea7c44c06a8ec57c9201c456aae406676be448609777a2d9811400.7e9e09cc41^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:20:55Z</t>
+  </si>
+  <si>
+    <t>eac3892248ee95c2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3448cadfe205e7d9352b2483e95de95e0fbd97ef8cf26561743329f5ae305080.bd507baf7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:23:06Z</t>
+  </si>
+  <si>
+    <t>cc813a4a068316df</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.5526fb95c16d7661f432a2468d508e9a7d20e8199152e4de34af44e2cad1cdca.69ccc6b26c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:26:47Z</t>
+  </si>
+  <si>
+    <t>79780cb3c7d43314</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.c3138ce54da4e77800438a8c07ae5d4fd5b14a2644d7810a6e3811ef6501e519.db312c1bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-23T19:28:55Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2687,183 +2680,180 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3163,7 +3153,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,7 +3177,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4315,10 +4305,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4364,14 +4354,14 @@
       <c r="T1" s="27"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
@@ -4389,14 +4379,14 @@
       <c r="T2" s="27"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -4414,12 +4404,12 @@
       <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="29"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -4438,12 +4428,12 @@
       <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -4461,8 +4451,8 @@
       <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="30"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -5021,7 +5011,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>16</v>
       </c>
@@ -5038,20 +5028,18 @@
         <v>57</v>
       </c>
       <c r="F23" s="37">
-        <v>44981</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>356</v>
+        <v>45004</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
@@ -5065,7 +5053,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>17</v>
       </c>
@@ -5082,20 +5070,18 @@
         <v>59</v>
       </c>
       <c r="F24" s="37">
-        <v>44981</v>
+        <v>45004</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="J24" s="39"/>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -5109,7 +5095,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <v>18</v>
       </c>
@@ -5126,20 +5112,18 @@
         <v>61</v>
       </c>
       <c r="F25" s="37">
-        <v>44981</v>
+        <v>45004</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="J25" s="39"/>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -5153,7 +5137,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="78" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34">
         <v>19</v>
       </c>
@@ -5170,20 +5154,18 @@
         <v>63</v>
       </c>
       <c r="F26" s="37">
-        <v>44982</v>
+        <v>45004</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="J26" s="39"/>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
@@ -5197,7 +5179,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34">
         <v>20</v>
       </c>
@@ -5214,20 +5196,18 @@
         <v>66</v>
       </c>
       <c r="F27" s="37">
-        <v>44983</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="I27" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
@@ -5241,7 +5221,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <v>21</v>
       </c>
@@ -5258,20 +5238,18 @@
         <v>68</v>
       </c>
       <c r="F28" s="37">
-        <v>44983</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="J28" s="39"/>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
@@ -5285,7 +5263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <v>22</v>
       </c>
@@ -5302,20 +5280,18 @@
         <v>70</v>
       </c>
       <c r="F29" s="37">
-        <v>44983</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="I29" s="38" t="s">
-        <v>402</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
@@ -5329,7 +5305,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="99.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="99.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <v>23</v>
       </c>
@@ -5346,20 +5322,18 @@
         <v>72</v>
       </c>
       <c r="F30" s="37">
-        <v>44983</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="I30" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>45004</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="J30" s="39"/>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
@@ -5631,24 +5605,18 @@
         <v>44982</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J38" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="J38" s="39"/>
       <c r="K38" s="39"/>
-      <c r="L38" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
       <c r="N38" s="39"/>
       <c r="O38" s="39" t="s">
         <v>84</v>
@@ -5683,24 +5651,18 @@
         <v>44983</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="I39" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J39" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="J39" s="39"/>
       <c r="K39" s="39"/>
-      <c r="L39" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
       <c r="N39" s="39"/>
       <c r="O39" s="39" t="s">
         <v>84</v>
@@ -5871,24 +5833,18 @@
         <v>44982</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="I44" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="J44" s="39"/>
       <c r="K44" s="39"/>
-      <c r="L44" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="39" t="s">
         <v>84</v>
@@ -5923,24 +5879,18 @@
         <v>44983</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="I45" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J45" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="J45" s="39"/>
       <c r="K45" s="39"/>
-      <c r="L45" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
       <c r="N45" s="39"/>
       <c r="O45" s="39" t="s">
         <v>84</v>
@@ -6123,16 +6073,10 @@
       <c r="K50" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="L50" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
       <c r="N50" s="39"/>
-      <c r="O50" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O50" s="39"/>
       <c r="P50" s="39" t="s">
         <v>345</v>
       </c>
@@ -6171,16 +6115,10 @@
       <c r="K51" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="L51" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
       <c r="N51" s="39"/>
-      <c r="O51" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O51" s="39"/>
       <c r="P51" s="39" t="s">
         <v>345</v>
       </c>
@@ -7683,16 +7621,10 @@
       <c r="K95" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="L95" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M95" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
       <c r="N95" s="39"/>
-      <c r="O95" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O95" s="39"/>
       <c r="P95" s="39"/>
       <c r="Q95" s="39"/>
       <c r="R95" s="42"/>
@@ -7727,16 +7659,10 @@
       <c r="K96" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="L96" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M96" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
       <c r="N96" s="39"/>
-      <c r="O96" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O96" s="39"/>
       <c r="P96" s="39"/>
       <c r="Q96" s="39"/>
       <c r="R96" s="42"/>
@@ -7765,28 +7691,20 @@
         <v>44982</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H97" s="36" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I97" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="J97" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="J97" s="39"/>
       <c r="K97" s="39"/>
-      <c r="L97" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M97" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
       <c r="N97" s="39"/>
-      <c r="O97" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O97" s="39"/>
       <c r="P97" s="39" t="s">
         <v>353</v>
       </c>
@@ -7823,16 +7741,10 @@
       <c r="K98" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="L98" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M98" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
       <c r="N98" s="39"/>
-      <c r="O98" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O98" s="39"/>
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="42"/>
@@ -7867,16 +7779,10 @@
       <c r="K99" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="L99" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M99" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
       <c r="N99" s="39"/>
-      <c r="O99" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O99" s="39"/>
       <c r="P99" s="39"/>
       <c r="Q99" s="39"/>
       <c r="R99" s="42"/>
@@ -7911,16 +7817,10 @@
       <c r="K100" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="L100" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M100" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
       <c r="N100" s="39"/>
-      <c r="O100" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O100" s="39"/>
       <c r="P100" s="39"/>
       <c r="Q100" s="39"/>
       <c r="R100" s="42"/>
@@ -7949,28 +7849,20 @@
         <v>44982</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H101" s="36" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="I101" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="J101" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="J101" s="39"/>
       <c r="K101" s="39"/>
-      <c r="L101" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M101" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
       <c r="N101" s="39"/>
-      <c r="O101" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O101" s="39"/>
       <c r="P101" s="39" t="s">
         <v>353</v>
       </c>
@@ -8007,16 +7899,10 @@
       <c r="K102" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="L102" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M102" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L102" s="39"/>
+      <c r="M102" s="39"/>
       <c r="N102" s="39"/>
-      <c r="O102" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O102" s="39"/>
       <c r="P102" s="39"/>
       <c r="Q102" s="39"/>
       <c r="R102" s="42"/>
@@ -8045,28 +7931,20 @@
         <v>44982</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H103" s="36" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="I103" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="J103" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="J103" s="39"/>
       <c r="K103" s="39"/>
-      <c r="L103" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M103" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L103" s="39"/>
+      <c r="M103" s="39"/>
       <c r="N103" s="39"/>
-      <c r="O103" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O103" s="39"/>
       <c r="P103" s="39" t="s">
         <v>353</v>
       </c>
@@ -8097,28 +7975,20 @@
         <v>44982</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H104" s="36" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="I104" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="J104" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="J104" s="39"/>
       <c r="K104" s="39"/>
-      <c r="L104" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M104" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L104" s="39"/>
+      <c r="M104" s="39"/>
       <c r="N104" s="39"/>
-      <c r="O104" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O104" s="39"/>
       <c r="P104" s="39" t="s">
         <v>353</v>
       </c>
@@ -8149,28 +8019,20 @@
         <v>44982</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H105" s="46" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="I105" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="J105" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="J105" s="39"/>
       <c r="K105" s="39"/>
-      <c r="L105" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M105" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
       <c r="N105" s="39"/>
-      <c r="O105" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O105" s="39"/>
       <c r="P105" s="39" t="s">
         <v>353</v>
       </c>
@@ -8201,28 +8063,20 @@
         <v>44982</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="I106" s="36" t="s">
-        <v>382</v>
-      </c>
-      <c r="J106" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="J106" s="39"/>
       <c r="K106" s="39"/>
-      <c r="L106" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M106" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L106" s="39"/>
+      <c r="M106" s="39"/>
       <c r="N106" s="39"/>
-      <c r="O106" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O106" s="39"/>
       <c r="P106" s="39" t="s">
         <v>353</v>
       </c>
@@ -8253,28 +8107,20 @@
         <v>44982</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="I107" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="J107" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J107" s="39"/>
       <c r="K107" s="39"/>
-      <c r="L107" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M107" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L107" s="39"/>
+      <c r="M107" s="39"/>
       <c r="N107" s="39"/>
-      <c r="O107" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O107" s="39"/>
       <c r="P107" s="39" t="s">
         <v>353</v>
       </c>
@@ -8311,16 +8157,10 @@
       <c r="K108" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="L108" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M108" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L108" s="39"/>
+      <c r="M108" s="39"/>
       <c r="N108" s="39"/>
-      <c r="O108" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O108" s="39"/>
       <c r="P108" s="39"/>
       <c r="Q108" s="39"/>
       <c r="R108" s="42"/>
@@ -8355,16 +8195,10 @@
       <c r="K109" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="L109" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M109" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
       <c r="N109" s="39"/>
-      <c r="O109" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O109" s="39"/>
       <c r="P109" s="39"/>
       <c r="Q109" s="39"/>
       <c r="R109" s="42"/>
@@ -8393,28 +8227,20 @@
         <v>44983</v>
       </c>
       <c r="G110" s="38" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="H110" s="38" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="J110" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="J110" s="39"/>
       <c r="K110" s="39"/>
-      <c r="L110" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M110" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L110" s="39"/>
+      <c r="M110" s="39"/>
       <c r="N110" s="39"/>
-      <c r="O110" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O110" s="39"/>
       <c r="P110" s="39" t="s">
         <v>353</v>
       </c>
@@ -8451,16 +8277,10 @@
       <c r="K111" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="L111" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M111" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
       <c r="N111" s="39"/>
-      <c r="O111" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O111" s="39"/>
       <c r="P111" s="39"/>
       <c r="Q111" s="39"/>
       <c r="R111" s="42"/>
@@ -8495,16 +8315,10 @@
       <c r="K112" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="L112" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M112" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L112" s="39"/>
+      <c r="M112" s="39"/>
       <c r="N112" s="39"/>
-      <c r="O112" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O112" s="39"/>
       <c r="P112" s="39"/>
       <c r="Q112" s="39"/>
       <c r="R112" s="42"/>
@@ -8539,16 +8353,10 @@
       <c r="K113" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="L113" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M113" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
       <c r="N113" s="39"/>
-      <c r="O113" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O113" s="39"/>
       <c r="P113" s="39"/>
       <c r="Q113" s="39"/>
       <c r="R113" s="42"/>
@@ -8577,28 +8385,20 @@
         <v>44983</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="J114" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="J114" s="39"/>
       <c r="K114" s="39"/>
-      <c r="L114" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M114" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L114" s="39"/>
+      <c r="M114" s="39"/>
       <c r="N114" s="39"/>
-      <c r="O114" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O114" s="39"/>
       <c r="P114" s="39" t="s">
         <v>353</v>
       </c>
@@ -8629,28 +8429,20 @@
         <v>44983</v>
       </c>
       <c r="G115" s="38" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="J115" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="J115" s="39"/>
       <c r="K115" s="39"/>
-      <c r="L115" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M115" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L115" s="39"/>
+      <c r="M115" s="39"/>
       <c r="N115" s="39"/>
-      <c r="O115" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O115" s="39"/>
       <c r="P115" s="39" t="s">
         <v>353</v>
       </c>
@@ -8687,16 +8479,10 @@
       <c r="K116" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="L116" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M116" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
       <c r="N116" s="39"/>
-      <c r="O116" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O116" s="39"/>
       <c r="P116" s="39"/>
       <c r="Q116" s="39"/>
       <c r="R116" s="42"/>
@@ -8725,28 +8511,20 @@
         <v>44983</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="J117" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="J117" s="39"/>
       <c r="K117" s="39"/>
-      <c r="L117" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M117" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
       <c r="N117" s="39"/>
-      <c r="O117" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O117" s="39"/>
       <c r="P117" s="39" t="s">
         <v>353</v>
       </c>
@@ -8777,28 +8555,20 @@
         <v>44983</v>
       </c>
       <c r="G118" s="38" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="H118" s="38" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="J118" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="J118" s="39"/>
       <c r="K118" s="39"/>
-      <c r="L118" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M118" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
       <c r="N118" s="39"/>
-      <c r="O118" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O118" s="39"/>
       <c r="P118" s="39" t="s">
         <v>353</v>
       </c>
@@ -8829,28 +8599,20 @@
         <v>44983</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="H119" s="38" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="J119" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="J119" s="39"/>
       <c r="K119" s="39"/>
-      <c r="L119" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M119" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
       <c r="N119" s="39"/>
-      <c r="O119" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O119" s="39"/>
       <c r="P119" s="39" t="s">
         <v>353</v>
       </c>
@@ -8881,28 +8643,20 @@
         <v>44983</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>423</v>
-      </c>
-      <c r="J120" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="J120" s="39"/>
       <c r="K120" s="39"/>
-      <c r="L120" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M120" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L120" s="39"/>
+      <c r="M120" s="39"/>
       <c r="N120" s="39"/>
-      <c r="O120" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O120" s="39"/>
       <c r="P120" s="39" t="s">
         <v>353</v>
       </c>
@@ -8933,28 +8687,20 @@
         <v>44983</v>
       </c>
       <c r="G121" s="38" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>426</v>
-      </c>
-      <c r="J121" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="J121" s="39"/>
       <c r="K121" s="39"/>
-      <c r="L121" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M121" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
       <c r="N121" s="39"/>
-      <c r="O121" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O121" s="39"/>
       <c r="P121" s="39" t="s">
         <v>353</v>
       </c>
@@ -8985,28 +8731,20 @@
         <v>44983</v>
       </c>
       <c r="G122" s="38" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="H122" s="38" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="J122" s="39" t="s">
-        <v>84</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="J122" s="39"/>
       <c r="K122" s="39"/>
-      <c r="L122" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="M122" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="L122" s="39"/>
+      <c r="M122" s="39"/>
       <c r="N122" s="39"/>
-      <c r="O122" s="39" t="s">
-        <v>321</v>
-      </c>
+      <c r="O122" s="39"/>
       <c r="P122" s="39" t="s">
         <v>353</v>
       </c>
@@ -24238,11 +23976,6 @@
       <filters>
         <filter val="CERT_VAC"/>
         <filter val="SING_VAC"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters>
-        <filter val="KO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -24277,7 +24010,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
+          <xm:sqref>L10:M1048576 O1:O8 L1:M8 O10:O1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26446,26 +26179,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26696,32 +26409,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26740,6 +26448,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232FEC8-AE1F-4428-9E60-909D060A2A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399DB7C-16CA-4335-A91C-6435923F05F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="434">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -4305,10 +4305,10 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5039,7 +5039,9 @@
       <c r="I23" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
@@ -5081,7 +5083,9 @@
       <c r="I24" s="36" t="s">
         <v>414</v>
       </c>
-      <c r="J24" s="39"/>
+      <c r="J24" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
       <c r="M24" s="39"/>
@@ -5123,7 +5127,9 @@
       <c r="I25" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="J25" s="39"/>
+      <c r="J25" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K25" s="39"/>
       <c r="L25" s="39"/>
       <c r="M25" s="39"/>
@@ -5165,7 +5171,9 @@
       <c r="I26" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
       <c r="M26" s="39"/>
@@ -5207,7 +5215,9 @@
       <c r="I27" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
       <c r="M27" s="39"/>
@@ -5249,7 +5259,9 @@
       <c r="I28" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="J28" s="39"/>
+      <c r="J28" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
@@ -5291,7 +5303,9 @@
       <c r="I29" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="J29" s="39"/>
+      <c r="J29" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K29" s="39"/>
       <c r="L29" s="39"/>
       <c r="M29" s="39"/>
@@ -5333,7 +5347,9 @@
       <c r="I30" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="J30" s="39"/>
+      <c r="J30" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K30" s="39"/>
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
@@ -5613,7 +5629,9 @@
       <c r="I38" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J38" s="39"/>
+      <c r="J38" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
       <c r="M38" s="39"/>
@@ -5659,7 +5677,9 @@
       <c r="I39" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J39" s="39"/>
+      <c r="J39" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K39" s="39"/>
       <c r="L39" s="39"/>
       <c r="M39" s="39"/>
@@ -5841,7 +5861,9 @@
       <c r="I44" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="39"/>
+      <c r="J44" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K44" s="39"/>
       <c r="L44" s="39"/>
       <c r="M44" s="39"/>
@@ -5887,7 +5909,9 @@
       <c r="I45" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="J45" s="39"/>
+      <c r="J45" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
       <c r="M45" s="39"/>
@@ -7699,7 +7723,9 @@
       <c r="I97" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="J97" s="39"/>
+      <c r="J97" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K97" s="39"/>
       <c r="L97" s="39"/>
       <c r="M97" s="39"/>
@@ -7857,7 +7883,9 @@
       <c r="I101" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="J101" s="39"/>
+      <c r="J101" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K101" s="39"/>
       <c r="L101" s="39"/>
       <c r="M101" s="39"/>
@@ -7939,7 +7967,9 @@
       <c r="I103" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="J103" s="39"/>
+      <c r="J103" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K103" s="39"/>
       <c r="L103" s="39"/>
       <c r="M103" s="39"/>
@@ -7983,7 +8013,9 @@
       <c r="I104" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="J104" s="39"/>
+      <c r="J104" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K104" s="39"/>
       <c r="L104" s="39"/>
       <c r="M104" s="39"/>
@@ -8027,7 +8059,9 @@
       <c r="I105" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="J105" s="39"/>
+      <c r="J105" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K105" s="39"/>
       <c r="L105" s="39"/>
       <c r="M105" s="39"/>
@@ -8071,7 +8105,9 @@
       <c r="I106" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="J106" s="39"/>
+      <c r="J106" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K106" s="39"/>
       <c r="L106" s="39"/>
       <c r="M106" s="39"/>
@@ -8115,7 +8151,9 @@
       <c r="I107" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="J107" s="39"/>
+      <c r="J107" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K107" s="39"/>
       <c r="L107" s="39"/>
       <c r="M107" s="39"/>
@@ -8235,7 +8273,9 @@
       <c r="I110" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="J110" s="39"/>
+      <c r="J110" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K110" s="39"/>
       <c r="L110" s="39"/>
       <c r="M110" s="39"/>
@@ -8393,7 +8433,9 @@
       <c r="I114" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="J114" s="39"/>
+      <c r="J114" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K114" s="39"/>
       <c r="L114" s="39"/>
       <c r="M114" s="39"/>
@@ -8437,7 +8479,9 @@
       <c r="I115" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="J115" s="39"/>
+      <c r="J115" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K115" s="39"/>
       <c r="L115" s="39"/>
       <c r="M115" s="39"/>
@@ -8519,7 +8563,9 @@
       <c r="I117" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="J117" s="39"/>
+      <c r="J117" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K117" s="39"/>
       <c r="L117" s="39"/>
       <c r="M117" s="39"/>
@@ -8563,7 +8609,9 @@
       <c r="I118" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="J118" s="39"/>
+      <c r="J118" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K118" s="39"/>
       <c r="L118" s="39"/>
       <c r="M118" s="39"/>
@@ -8607,7 +8655,9 @@
       <c r="I119" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="J119" s="39"/>
+      <c r="J119" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K119" s="39"/>
       <c r="L119" s="39"/>
       <c r="M119" s="39"/>
@@ -8651,7 +8701,9 @@
       <c r="I120" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="J120" s="39"/>
+      <c r="J120" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K120" s="39"/>
       <c r="L120" s="39"/>
       <c r="M120" s="39"/>
@@ -8695,7 +8747,9 @@
       <c r="I121" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="J121" s="39"/>
+      <c r="J121" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K121" s="39"/>
       <c r="L121" s="39"/>
       <c r="M121" s="39"/>
@@ -8739,7 +8793,9 @@
       <c r="I122" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="J122" s="39"/>
+      <c r="J122" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="K122" s="39"/>
       <c r="L122" s="39"/>
       <c r="M122" s="39"/>
@@ -26179,6 +26235,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26409,27 +26485,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26448,31 +26529,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399DB7C-16CA-4335-A91C-6435923F05F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86174E5-48DF-41BA-8697-1F64077F13E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="433">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1922,9 +1922,6 @@
   </si>
   <si>
     <t>L'errore viene salvato nel file di log dell'applicazione ed il record viene marcato come "DA INVIARE"., in modo che lo stesso sia accodato al prossimo ciclo di invii</t>
-  </si>
-  <si>
-    <t>Il test non è applicabile in quanto non riproducibile lato software</t>
   </si>
   <si>
     <t>Il test non è applicabile in quanto non riproducibile lato software. Non è possibile infatti inviare la scheda senza l'identificativo utente.</t>
@@ -3153,7 +3150,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,11 +4301,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5031,13 +5028,13 @@
         <v>45004</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H23" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>410</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>411</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>84</v>
@@ -5075,13 +5072,13 @@
         <v>45004</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H24" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>413</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>414</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>84</v>
@@ -5119,13 +5116,13 @@
         <v>45004</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H25" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="36" t="s">
         <v>416</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>417</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>84</v>
@@ -5163,13 +5160,13 @@
         <v>45004</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H26" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="I26" s="36" t="s">
         <v>419</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>420</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>84</v>
@@ -5207,13 +5204,13 @@
         <v>45004</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H27" s="36" t="s">
+        <v>421</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>422</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>423</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>84</v>
@@ -5251,13 +5248,13 @@
         <v>45004</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H28" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>425</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>426</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>84</v>
@@ -5295,13 +5292,13 @@
         <v>45004</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H29" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="I29" s="36" t="s">
         <v>428</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>429</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>84</v>
@@ -5339,13 +5336,13 @@
         <v>45004</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H30" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="I30" s="36" t="s">
         <v>431</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>432</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>84</v>
@@ -5621,10 +5618,10 @@
         <v>44982</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>343</v>
@@ -5633,8 +5630,12 @@
         <v>84</v>
       </c>
       <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="L38" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N38" s="39"/>
       <c r="O38" s="39" t="s">
         <v>84</v>
@@ -5669,10 +5670,10 @@
         <v>44983</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H39" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I39" s="38" t="s">
         <v>343</v>
@@ -5681,8 +5682,12 @@
         <v>84</v>
       </c>
       <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="L39" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N39" s="39"/>
       <c r="O39" s="39" t="s">
         <v>84</v>
@@ -5853,10 +5858,10 @@
         <v>44982</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I44" s="38" t="s">
         <v>343</v>
@@ -5865,8 +5870,12 @@
         <v>84</v>
       </c>
       <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="L44" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N44" s="39"/>
       <c r="O44" s="39" t="s">
         <v>84</v>
@@ -5901,10 +5910,10 @@
         <v>44983</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I45" s="38" t="s">
         <v>343</v>
@@ -5913,8 +5922,12 @@
         <v>84</v>
       </c>
       <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="L45" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N45" s="39"/>
       <c r="O45" s="39" t="s">
         <v>84</v>
@@ -6092,11 +6105,9 @@
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
       <c r="J50" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>346</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K50" s="39"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
@@ -6134,11 +6145,9 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
       <c r="J51" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="K51" s="39" t="s">
-        <v>346</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K51" s="39"/>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -7643,7 +7652,7 @@
         <v>321</v>
       </c>
       <c r="K95" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L95" s="39"/>
       <c r="M95" s="39"/>
@@ -7681,7 +7690,7 @@
         <v>321</v>
       </c>
       <c r="K96" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L96" s="39"/>
       <c r="M96" s="39"/>
@@ -7715,24 +7724,30 @@
         <v>44982</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H97" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I97" s="36" t="s">
         <v>354</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>355</v>
       </c>
       <c r="J97" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
+      <c r="L97" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M97" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
+      <c r="O97" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P97" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q97" s="39"/>
       <c r="R97" s="42"/>
@@ -7765,7 +7780,7 @@
         <v>321</v>
       </c>
       <c r="K98" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L98" s="39"/>
       <c r="M98" s="39"/>
@@ -7803,7 +7818,7 @@
         <v>321</v>
       </c>
       <c r="K99" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L99" s="39"/>
       <c r="M99" s="39"/>
@@ -7841,7 +7856,7 @@
         <v>321</v>
       </c>
       <c r="K100" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L100" s="39"/>
       <c r="M100" s="39"/>
@@ -7875,24 +7890,30 @@
         <v>44982</v>
       </c>
       <c r="G101" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H101" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="I101" s="36" t="s">
         <v>357</v>
-      </c>
-      <c r="I101" s="36" t="s">
-        <v>358</v>
       </c>
       <c r="J101" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
+      <c r="L101" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M101" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
+      <c r="O101" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P101" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q101" s="39"/>
       <c r="R101" s="42"/>
@@ -7925,7 +7946,7 @@
         <v>321</v>
       </c>
       <c r="K102" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L102" s="39"/>
       <c r="M102" s="39"/>
@@ -7959,24 +7980,30 @@
         <v>44982</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H103" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="I103" s="36" t="s">
         <v>360</v>
-      </c>
-      <c r="I103" s="36" t="s">
-        <v>361</v>
       </c>
       <c r="J103" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
+      <c r="L103" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M103" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
+      <c r="O103" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P103" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q103" s="39"/>
       <c r="R103" s="42"/>
@@ -8005,24 +8032,30 @@
         <v>44982</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H104" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="I104" s="36" t="s">
         <v>363</v>
-      </c>
-      <c r="I104" s="36" t="s">
-        <v>364</v>
       </c>
       <c r="J104" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
+      <c r="L104" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M104" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N104" s="39"/>
-      <c r="O104" s="39"/>
+      <c r="O104" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P104" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q104" s="39"/>
       <c r="R104" s="42"/>
@@ -8051,24 +8084,30 @@
         <v>44982</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H105" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="I105" s="36" t="s">
         <v>366</v>
-      </c>
-      <c r="I105" s="36" t="s">
-        <v>367</v>
       </c>
       <c r="J105" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
+      <c r="L105" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M105" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
+      <c r="O105" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P105" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q105" s="39"/>
       <c r="R105" s="42"/>
@@ -8097,24 +8136,30 @@
         <v>44982</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H106" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I106" s="36" t="s">
         <v>369</v>
-      </c>
-      <c r="I106" s="36" t="s">
-        <v>370</v>
       </c>
       <c r="J106" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
+      <c r="L106" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M106" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
+      <c r="O106" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P106" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q106" s="39"/>
       <c r="R106" s="42"/>
@@ -8143,24 +8188,30 @@
         <v>44982</v>
       </c>
       <c r="G107" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H107" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="I107" s="36" t="s">
         <v>372</v>
-      </c>
-      <c r="I107" s="36" t="s">
-        <v>373</v>
       </c>
       <c r="J107" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
+      <c r="L107" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M107" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N107" s="39"/>
-      <c r="O107" s="39"/>
+      <c r="O107" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P107" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q107" s="39"/>
       <c r="R107" s="42"/>
@@ -8193,7 +8244,7 @@
         <v>321</v>
       </c>
       <c r="K108" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L108" s="39"/>
       <c r="M108" s="39"/>
@@ -8231,7 +8282,7 @@
         <v>321</v>
       </c>
       <c r="K109" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L109" s="39"/>
       <c r="M109" s="39"/>
@@ -8265,24 +8316,30 @@
         <v>44983</v>
       </c>
       <c r="G110" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H110" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="I110" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="I110" s="38" t="s">
-        <v>384</v>
       </c>
       <c r="J110" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
+      <c r="L110" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M110" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N110" s="39"/>
-      <c r="O110" s="39"/>
+      <c r="O110" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P110" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q110" s="39"/>
       <c r="R110" s="42"/>
@@ -8315,7 +8372,7 @@
         <v>321</v>
       </c>
       <c r="K111" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
@@ -8353,7 +8410,7 @@
         <v>321</v>
       </c>
       <c r="K112" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L112" s="39"/>
       <c r="M112" s="39"/>
@@ -8391,7 +8448,7 @@
         <v>321</v>
       </c>
       <c r="K113" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L113" s="39"/>
       <c r="M113" s="39"/>
@@ -8425,24 +8482,30 @@
         <v>44983</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H114" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="I114" s="38" t="s">
         <v>386</v>
-      </c>
-      <c r="I114" s="38" t="s">
-        <v>387</v>
       </c>
       <c r="J114" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
+      <c r="L114" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M114" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N114" s="39"/>
-      <c r="O114" s="39"/>
+      <c r="O114" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P114" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q114" s="39"/>
       <c r="R114" s="42"/>
@@ -8471,24 +8534,30 @@
         <v>44983</v>
       </c>
       <c r="G115" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H115" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="I115" s="38" t="s">
         <v>407</v>
-      </c>
-      <c r="I115" s="38" t="s">
-        <v>408</v>
       </c>
       <c r="J115" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
+      <c r="L115" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M115" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N115" s="39"/>
-      <c r="O115" s="39"/>
+      <c r="O115" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P115" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q115" s="39"/>
       <c r="R115" s="42"/>
@@ -8521,7 +8590,7 @@
         <v>321</v>
       </c>
       <c r="K116" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L116" s="39"/>
       <c r="M116" s="39"/>
@@ -8555,24 +8624,30 @@
         <v>44983</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H117" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="I117" s="38" t="s">
         <v>389</v>
-      </c>
-      <c r="I117" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="J117" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
+      <c r="L117" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M117" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
+      <c r="O117" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P117" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q117" s="39"/>
       <c r="R117" s="42"/>
@@ -8601,24 +8676,30 @@
         <v>44983</v>
       </c>
       <c r="G118" s="38" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H118" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="I118" s="38" t="s">
         <v>392</v>
-      </c>
-      <c r="I118" s="38" t="s">
-        <v>393</v>
       </c>
       <c r="J118" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="L118" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M118" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N118" s="39"/>
-      <c r="O118" s="39"/>
+      <c r="O118" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P118" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q118" s="39"/>
       <c r="R118" s="42"/>
@@ -8647,24 +8728,30 @@
         <v>44983</v>
       </c>
       <c r="G119" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H119" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="I119" s="38" t="s">
         <v>395</v>
-      </c>
-      <c r="I119" s="38" t="s">
-        <v>396</v>
       </c>
       <c r="J119" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
+      <c r="L119" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M119" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N119" s="39"/>
-      <c r="O119" s="39"/>
+      <c r="O119" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P119" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q119" s="39"/>
       <c r="R119" s="42"/>
@@ -8693,24 +8780,30 @@
         <v>44983</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H120" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="I120" s="38" t="s">
         <v>398</v>
-      </c>
-      <c r="I120" s="38" t="s">
-        <v>399</v>
       </c>
       <c r="J120" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
+      <c r="L120" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M120" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N120" s="39"/>
-      <c r="O120" s="39"/>
+      <c r="O120" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P120" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q120" s="39"/>
       <c r="R120" s="42"/>
@@ -8739,24 +8832,30 @@
         <v>44983</v>
       </c>
       <c r="G121" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H121" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="I121" s="38" t="s">
         <v>401</v>
-      </c>
-      <c r="I121" s="38" t="s">
-        <v>402</v>
       </c>
       <c r="J121" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
+      <c r="L121" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M121" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N121" s="39"/>
-      <c r="O121" s="39"/>
+      <c r="O121" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P121" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q121" s="39"/>
       <c r="R121" s="42"/>
@@ -8785,24 +8884,30 @@
         <v>44983</v>
       </c>
       <c r="G122" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H122" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="I122" s="38" t="s">
         <v>404</v>
-      </c>
-      <c r="I122" s="38" t="s">
-        <v>405</v>
       </c>
       <c r="J122" s="39" t="s">
         <v>84</v>
       </c>
       <c r="K122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
+      <c r="L122" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M122" s="39" t="s">
+        <v>321</v>
+      </c>
       <c r="N122" s="39"/>
-      <c r="O122" s="39"/>
+      <c r="O122" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="P122" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q122" s="39"/>
       <c r="R122" s="42"/>
@@ -24066,7 +24171,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L10:M1048576 O1:O8 L1:M8 O10:O1048576</xm:sqref>
+          <xm:sqref>O10:O1048576 O1:O8 L1:M8 L10:M1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -26235,26 +26340,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26485,32 +26570,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26529,6 +26609,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111INFONEXT000/INFONEXT_SRL/EVAC/V.3.0.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\infonext\it-fse-accreditamento\GATEWAY\A1#111INFONEXT000\INFONEXT_SRL\EVAC\V.3.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86174E5-48DF-41BA-8697-1F64077F13E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114E8CB-AE0F-49A9-AD8D-C98DDF818C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="0" windowWidth="13485" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -2113,76 +2113,76 @@
     <t>2023-02-26T11:34:54Z</t>
   </si>
   <si>
-    <t>ec00e03d9be849bb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.80eeee6bdce1984a44a8cf4c505b8f47ef6d4860701be034f1997c245de7529b.5c31be7271^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:10:40Z</t>
-  </si>
-  <si>
-    <t>9130c4a3656ca80a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.28cdcac6637939c6a8dbd0b47956b5aadaee00568c6e8247ab9089f043750d28.096961d1f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:14:12Z</t>
-  </si>
-  <si>
-    <t>11751fe75a10e54b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.bbbb091976c7aede6f6931634a8d920b0b24a547b2364c484caf762880ec3322.ac8b712b57^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:16:27Z</t>
-  </si>
-  <si>
-    <t>7f575ba625515b38</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3e5771e5c8d898c14c4c5b398680bd81ff093871113dab013d842810089330ab.4d86612ef8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:18:43Z</t>
-  </si>
-  <si>
-    <t>061b0fc78e0a9121</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.24c36b8d91ea7c44c06a8ec57c9201c456aae406676be448609777a2d9811400.7e9e09cc41^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:20:55Z</t>
-  </si>
-  <si>
-    <t>eac3892248ee95c2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3448cadfe205e7d9352b2483e95de95e0fbd97ef8cf26561743329f5ae305080.bd507baf7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:23:06Z</t>
-  </si>
-  <si>
-    <t>cc813a4a068316df</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.5526fb95c16d7661f432a2468d508e9a7d20e8199152e4de34af44e2cad1cdca.69ccc6b26c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:26:47Z</t>
-  </si>
-  <si>
-    <t>79780cb3c7d43314</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.c3138ce54da4e77800438a8c07ae5d4fd5b14a2644d7810a6e3811ef6501e519.db312c1bd5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-23T19:28:55Z</t>
+    <t>2023-04-11T08:55:41Z</t>
+  </si>
+  <si>
+    <t>ba1dc1c2ba59def6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.80eeee6bdce1984a44a8cf4c505b8f47ef6d4860701be034f1997c245de7529b.3b2d65840c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:59:43Z</t>
+  </si>
+  <si>
+    <t>556d3903216a7d00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.28cdcac6637939c6a8dbd0b47956b5aadaee00568c6e8247ab9089f043750d28.7eff601513^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:05:32Z</t>
+  </si>
+  <si>
+    <t>a1a41b1e64605e9f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.bbbb091976c7aede6f6931634a8d920b0b24a547b2364c484caf762880ec3322.cff7cfb527^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:10:33Z</t>
+  </si>
+  <si>
+    <t>60602dec82adc69d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3e5771e5c8d898c14c4c5b398680bd81ff093871113dab013d842810089330ab.6735f8dc9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:17:29Z</t>
+  </si>
+  <si>
+    <t>e869ae0536b82baa</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.24c36b8d91ea7c44c06a8ec57c9201c456aae406676be448609777a2d9811400.28bed5c17b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:52:15Z</t>
+  </si>
+  <si>
+    <t>96f52fe87979184a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3448cadfe205e7d9352b2483e95de95e0fbd97ef8cf26561743329f5ae305080.d585eb8079^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:54:56Z</t>
+  </si>
+  <si>
+    <t>b6a619e0bddfc41a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.5526fb95c16d7661f432a2468d508e9a7d20e8199152e4de34af44e2cad1cdca.20c720e506^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:02:19Z</t>
+  </si>
+  <si>
+    <t>5b5878a8abbc8ec9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.c3138ce54da4e77800438a8c07ae5d4fd5b14a2644d7810a6e3811ef6501e519.c0cf4fc354^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2677,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2852,6 +2852,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4301,11 +4305,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,17 +5028,17 @@
       <c r="E23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G23" s="36" t="s">
+      <c r="F23" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>411</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>410</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>84</v>
@@ -5068,19 +5072,19 @@
       <c r="E24" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="H24" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="37" t="s">
         <v>84</v>
       </c>
       <c r="K24" s="39"/>
@@ -5112,17 +5116,17 @@
       <c r="E25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>417</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>415</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>416</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>84</v>
@@ -5156,17 +5160,17 @@
       <c r="E26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>419</v>
+      </c>
+      <c r="I26" s="37" t="s">
         <v>420</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>418</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>419</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>84</v>
@@ -5200,17 +5204,17 @@
       <c r="E27" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>423</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>422</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>84</v>
@@ -5244,17 +5248,17 @@
       <c r="E28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="I28" s="37" t="s">
         <v>426</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>425</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>84</v>
@@ -5288,17 +5292,17 @@
       <c r="E29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="I29" s="37" t="s">
         <v>429</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>428</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>84</v>
@@ -5332,17 +5336,17 @@
       <c r="E30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="37">
-        <v>45004</v>
-      </c>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="59">
+        <v>45027</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>432</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>430</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>431</v>
       </c>
       <c r="J30" s="39" t="s">
         <v>84</v>
@@ -26340,6 +26344,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -26570,27 +26594,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6395DAD-5B77-46ED-9147-4C5A384B6E5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26609,31 +26638,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F02EBF-A415-4FB6-A4E4-A6920890B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAAC13FE-B745-460A-BC76-FAEE62F3EBA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
